--- a/assets/Archivos/Empleado/accidentabilidad.xlsx
+++ b/assets/Archivos/Empleado/accidentabilidad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM-Proyecto\assets\Archivos\Empleado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE4F81-9F6D-4A4A-A592-C71FE3DBBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1551921-E470-41D6-B09A-41BFA06B26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Día</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>accident</t>
   </si>
 </sst>
 </file>
@@ -469,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,13 +506,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -520,9 +542,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -539,7 +561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>

--- a/assets/Archivos/Empleado/accidentabilidad.xlsx
+++ b/assets/Archivos/Empleado/accidentabilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM-Proyecto\assets\Archivos\Empleado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1551921-E470-41D6-B09A-41BFA06B26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F51C6-784E-47DE-9826-1CEC3BAA1B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Día</t>
   </si>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +115,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,8 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,10 +525,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -525,6 +542,56 @@
       <c r="F2">
         <v>10</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
